--- a/Jogos_do_Dia/2023-05-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -663,10 +663,10 @@
         <v>2.6</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
         <v>1.09</v>
@@ -778,10 +778,10 @@
         <v>2.65</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P3" t="n">
         <v>1.46</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1008,10 +1008,10 @@
         <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P5" t="n">
         <v>1.39</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
         <v>3.55</v>
@@ -1123,10 +1123,10 @@
         <v>4.3</v>
       </c>
       <c r="N6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1238,10 +1238,10 @@
         <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.73</v>
+        <v>2.83</v>
       </c>
       <c r="H8" t="n">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="n">
         <v>1.12</v>
@@ -1347,16 +1347,16 @@
         <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="J9" t="n">
         <v>1.02</v>
@@ -1468,10 +1468,10 @@
         <v>4.55</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="P9" t="n">
         <v>1.28</v>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
@@ -1586,7 +1586,7 @@
         <v>1.58</v>
       </c>
       <c r="O10" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="P10" t="n">
         <v>1.24</v>
@@ -1652,7 +1652,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,110 +1664,110 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>17.5</v>
+        <v>6.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N11" t="n">
-        <v>1.57</v>
+        <v>2.17</v>
       </c>
       <c r="O11" t="n">
-        <v>2.23</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH11" t="n">
         <v>2.4</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AI11" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,104 +1779,104 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.72</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>6.5</v>
+        <v>17.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="M12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI12" t="n">
         <v>2.8</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="13">
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -1928,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O13" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="I14" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2043,7 +2043,7 @@
         <v>4.2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O14" t="n">
         <v>2.23</v>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.83</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2161,7 +2161,7 @@
         <v>1.58</v>
       </c>
       <c r="O15" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="P15" t="n">
         <v>1.27</v>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="J16" t="n">
         <v>1.01</v>
@@ -2273,10 +2273,10 @@
         <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="O16" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="P16" t="n">
         <v>1.29</v>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>3.25</v>
@@ -2388,10 +2388,10 @@
         <v>4.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="O17" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="P17" t="n">
         <v>1.22</v>
@@ -2457,7 +2457,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2465,114 +2465,114 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Sporting Covilhã</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>2.13</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.33</v>
       </c>
-      <c r="M18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>1.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="U18" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="X18" t="n">
-        <v>1.35</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.32</v>
+        <v>2.99</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.5</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2580,114 +2580,114 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cúcuta Deportivo</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Valledupar</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>2.83</v>
       </c>
       <c r="H19" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI19" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2695,108 +2695,108 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Cúcuta Deportivo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Valledupar</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.57</v>
+        <v>1.44</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.57</v>
+        <v>6.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N20" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.83</v>
+        <v>2.65</v>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="U20" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>2.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.28</v>
+        <v>1.49</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.43</v>
+        <v>1.24</v>
       </c>
       <c r="AA20" t="n">
-        <v>4.71</v>
+        <v>2.73</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2818,12 +2818,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2875,19 +2875,19 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2933,12 +2933,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2990,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="X22" t="n">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.27</v>
+        <v>1.81</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -3048,12 +3048,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -3105,19 +3105,19 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3163,12 +3163,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -3220,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="X24" t="n">
-        <v>0.71</v>
+        <v>1.43</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.64</v>
+        <v>3.21</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -3335,19 +3335,19 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.55</v>
+        <v>3.29</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -3393,12 +3393,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -3450,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.29</v>
+        <v>2.55</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3508,12 +3508,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -3565,19 +3565,19 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="X27" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3623,12 +3623,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -3680,19 +3680,19 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="X28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z28" t="n">
         <v>1.43</v>
       </c>
-      <c r="Y28" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA28" t="n">
-        <v>3.21</v>
+        <v>2.7</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3722,7 +3722,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,110 +3734,110 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W29" t="n">
-        <v>2.29</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.81</v>
+        <v>2.28</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.3</v>
+        <v>2.43</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.11</v>
+        <v>4.71</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3845,108 +3845,108 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X30" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="AB30" t="n">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.05</v>
+        <v>4.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="I31" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -3998,10 +3998,10 @@
         <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O31" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4062,6 +4062,351 @@
       </c>
       <c r="AI31" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>18</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.79</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,10 +645,10 @@
         <v>2.62</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -657,16 +657,16 @@
         <v>6.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="Y2" t="n">
         <v>1.09</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>3.91</v>
       </c>
       <c r="J3" t="n">
         <v>1.09</v>
@@ -778,10 +778,10 @@
         <v>2.65</v>
       </c>
       <c r="N3" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="O3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="P3" t="n">
         <v>1.46</v>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>4.94</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>3.81</v>
       </c>
       <c r="I4" t="n">
-        <v>1.15</v>
+        <v>1.63</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -893,10 +893,10 @@
         <v>3.3</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O4" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="P4" t="n">
         <v>1.38</v>
@@ -920,10 +920,10 @@
         <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="X4" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:10:00</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1008,10 +1008,10 @@
         <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P5" t="n">
         <v>1.39</v>
@@ -1035,10 +1035,10 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="Y5" t="n">
         <v>1.16</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>4.17</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="I6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1238,10 +1238,10 @@
         <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O7" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.83</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="J8" t="n">
         <v>1.12</v>
@@ -1468,10 +1468,10 @@
         <v>4.55</v>
       </c>
       <c r="N9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="P9" t="n">
         <v>1.28</v>
@@ -1537,7 +1537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,110 +1549,110 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>2.64</v>
       </c>
       <c r="H10" t="n">
-        <v>3.83</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>3.82</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>20</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N10" t="n">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="O10" t="n">
-        <v>2.23</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.45</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>1.44</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA10" t="n">
-        <v>3.24</v>
+        <v>2.89</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.47</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,104 +1664,104 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>3.83</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>2.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="R11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.95</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.52</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="X11" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.89</v>
+        <v>3.28</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.1</v>
+        <v>3.86</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12">
@@ -1898,100 +1898,100 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.56</v>
+        <v>1.86</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="I13" t="n">
-        <v>2.56</v>
+        <v>3.82</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="O13" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="U13" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="W13" t="n">
-        <v>1.12</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.73</v>
+        <v>3.24</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.92</v>
+        <v>2.37</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="14">
@@ -2013,100 +2013,100 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O14" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="P14" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.48</v>
+        <v>3.05</v>
       </c>
       <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.51</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.49</v>
       </c>
       <c r="U14" t="n">
         <v>1.28</v>
       </c>
       <c r="V14" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>0.59</v>
+        <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.32</v>
+        <v>2.73</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.62</v>
+        <v>1.92</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="15">
@@ -2128,34 +2128,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
-        <v>3.83</v>
+        <v>3.67</v>
       </c>
       <c r="I15" t="n">
-        <v>3.83</v>
+        <v>2.54</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N15" t="n">
         <v>1.58</v>
@@ -2164,64 +2164,64 @@
         <v>2.23</v>
       </c>
       <c r="P15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="T15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF15" t="n">
         <v>1.25</v>
       </c>
-      <c r="U15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AG15" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4.02</v>
       </c>
       <c r="I16" t="n">
-        <v>4.65</v>
+        <v>4.18</v>
       </c>
       <c r="J16" t="n">
         <v>1.01</v>
@@ -2342,7 +2342,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Iceland Úrvalsdeild</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,110 +2354,110 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Sporting Covilhã</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH17" t="n">
         <v>1.91</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.59</v>
-      </c>
       <c r="AI17" t="n">
-        <v>1.97</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Iceland Úrvalsdeild</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2469,104 +2469,104 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sporting Covilhã</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.22</v>
       </c>
-      <c r="M18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AG18" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AH18" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.33</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="19">
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="H20" t="n">
         <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2775,13 +2775,13 @@
         <v>2.73</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AE20" t="n">
         <v>1.51</v>
@@ -2793,7 +2793,7 @@
         <v>2.35</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2875,19 +2875,19 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.71</v>
+        <v>2.29</v>
       </c>
       <c r="X21" t="n">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.64</v>
+        <v>3.11</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2933,12 +2933,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2990,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="X22" t="n">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="AA22" t="n">
-        <v>3.11</v>
+        <v>2.55</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -3048,12 +3048,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -3105,19 +3105,19 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3163,12 +3163,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -3220,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.21</v>
+        <v>2.64</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -3335,19 +3335,19 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.29</v>
+        <v>2.81</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -3393,12 +3393,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -3450,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="X26" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3508,12 +3508,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -3565,19 +3565,19 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3623,12 +3623,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -3680,19 +3680,19 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.27</v>
+        <v>2.05</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.7</v>
+        <v>3.29</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3722,7 +3722,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,110 +3734,110 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.86</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.28</v>
+        <v>1.59</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.43</v>
+        <v>1.62</v>
       </c>
       <c r="AA29" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3849,104 +3849,104 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W30" t="n">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.12</v>
+        <v>2.43</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.81</v>
+        <v>4.71</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="31">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -3968,100 +3968,100 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.65</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.77</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1.58</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI31" t="n">
         <v>3.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="32">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.35</v>
+        <v>6.9</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4113,10 +4113,10 @@
         <v>3.6</v>
       </c>
       <c r="N32" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="O32" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="P32" t="n">
         <v>1.36</v>
@@ -4182,7 +4182,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4190,114 +4190,114 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Patriotas Boyacá</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.52</v>
       </c>
       <c r="I33" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
+        <v>13</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AC33" t="n">
         <v>8.5</v>
       </c>
-      <c r="L33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z33" t="n">
+      <c r="AD33" t="n">
         <v>1.51</v>
       </c>
-      <c r="AA33" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>3.62</v>
-      </c>
       <c r="AE33" t="n">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.88</v>
+        <v>1.3</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.37</v>
+        <v>1.55</v>
       </c>
       <c r="AH33" t="n">
-        <v>3.28</v>
+        <v>2</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mexico Liga MX</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4305,48 +4305,48 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Patriotas Boyacá</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.93</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O34" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="P34" t="n">
         <v>1.45</v>
@@ -4355,57 +4355,172 @@
         <v>2.6</v>
       </c>
       <c r="R34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.9</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S35" t="n">
         <v>1.8</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T35" t="n">
         <v>1.25</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U35" t="n">
         <v>1.34</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V35" t="n">
         <v>1.8</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W35" t="n">
         <v>1.69</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X35" t="n">
         <v>1.62</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y35" t="n">
         <v>2.06</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="Z35" t="n">
         <v>1.68</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AA35" t="n">
         <v>3.74</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB35" t="n">
         <v>1.44</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AC35" t="n">
         <v>6</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AD35" t="n">
         <v>3.2</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AE35" t="n">
         <v>1.2</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF35" t="n">
         <v>1.4</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AG35" t="n">
         <v>1.68</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AH35" t="n">
         <v>2.14</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AI35" t="n">
         <v>2.79</v>
       </c>
     </row>
